--- a/public/data/profit/profit_table_sierra_leone.xlsx
+++ b/public/data/profit/profit_table_sierra_leone.xlsx
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-28.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-32.47</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1212,46 +1212,46 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-77.17</v>
+        <v>-22.18</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-134.21</v>
+        <v>-31.54</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-153.76</v>
+        <v>-56.77</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-53.01</v>
+        <v>-23.36</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-143.94</v>
+        <v>-43.12</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-32.01</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-89.13</v>
+        <v>21.82</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-38.32</v>
+        <v>32.64</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1277,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-263.22</v>
+        <v>-37.89</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-285.57</v>
+        <v>-57.55</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1292,46 +1292,46 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-240.16</v>
+        <v>-150.89</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-421.03</v>
+        <v>-167.26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-512.79</v>
+        <v>-159.38</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-287.3</v>
+        <v>-44.1</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-479.13</v>
+        <v>-231.74</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-210.54</v>
+        <v>111.44</v>
       </c>
       <c r="W3" t="n">
-        <v>-256.31</v>
+        <v>16.54</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-167.37</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -1357,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-51.27</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-54.71</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1372,46 +1372,46 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-200.02</v>
+        <v>-92.91</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-248.53</v>
+        <v>-49</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-260.35</v>
+        <v>-57.94</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-108.42</v>
+        <v>7.59</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-256.79</v>
+        <v>-58.54</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-72.16</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-200.27</v>
+        <v>6.51</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-98.2</v>
+        <v>32.97</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-132.51</v>
+        <v>9.53</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-140.16</v>
+        <v>-37.1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1452,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-33.6</v>
+        <v>23.36</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-230.3</v>
+        <v>-110.98</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1470,28 +1470,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-161.96</v>
+        <v>-11.15</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-269.11</v>
+        <v>-159.29</v>
       </c>
       <c r="U5" t="n">
-        <v>-181.54</v>
+        <v>-90.43</v>
       </c>
       <c r="V5" t="n">
-        <v>-142.21</v>
+        <v>50.81</v>
       </c>
       <c r="W5" t="n">
-        <v>-64.5</v>
+        <v>96.33</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-99.62</v>
+        <v>37.84</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1517,61 +1517,61 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-114.79</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-119.83</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-89.02</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-43.43</v>
+        <v>8.89</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-233.42</v>
+        <v>-118.28</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-176</v>
+        <v>-76.17</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-145.6</v>
+        <v>-8.67</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-248.58</v>
+        <v>-133.45</v>
       </c>
       <c r="U6" t="n">
-        <v>-199.76</v>
+        <v>-85.99</v>
       </c>
       <c r="V6" t="n">
-        <v>-124.87</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-76.31</v>
+        <v>38.82</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-135.44</v>
+        <v>12.12</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1597,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-56.09</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-57.54</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-99.6</v>
+        <v>-43.12</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-203.01</v>
+        <v>-94.57</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1630,28 +1630,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-127.16</v>
+        <v>-8.44</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-212.74</v>
+        <v>-105.14</v>
       </c>
       <c r="U7" t="n">
-        <v>-189.24</v>
+        <v>-77.27</v>
       </c>
       <c r="V7" t="n">
-        <v>-36.71</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-107.9</v>
+        <v>8.82</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-119.69</v>
+        <v>4.01</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1677,61 +1677,61 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-37.75</v>
+        <v>109.93</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-81.82</v>
+        <v>-83.87</v>
       </c>
       <c r="J8" t="n">
-        <v>-105.27</v>
+        <v>-20.21</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>159.51</v>
+        <v>137.01</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-186.3</v>
+        <v>-80.55</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-231.87</v>
+        <v>-161.18</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-102.33</v>
+        <v>6.16</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-221.35</v>
+        <v>-115.81</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-17.82</v>
+        <v>84.24</v>
       </c>
       <c r="W8" t="n">
-        <v>21.8</v>
+        <v>130.45</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-82.23</v>
+        <v>56.86</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1757,61 +1757,61 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-71.5</v>
+        <v>55.18</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-124.31</v>
+        <v>-42.88</v>
       </c>
       <c r="J9" t="n">
-        <v>-113.7</v>
+        <v>-24.12</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>874.11</v>
+        <v>626.76</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-141</v>
+        <v>-74.85</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-111.73</v>
+        <v>-45.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>2227.39</v>
+        <v>2283.7</v>
       </c>
       <c r="R9" t="n">
-        <v>-94.67</v>
+        <v>7.91</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-179.21</v>
+        <v>-113.06</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-13.1</v>
+        <v>176.44</v>
       </c>
       <c r="W9" t="n">
-        <v>346.61</v>
+        <v>412.77</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>28.24</v>
+        <v>139.78</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1837,61 +1837,61 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-76.88</v>
+        <v>27.91</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-89.79</v>
+        <v>-38.48</v>
       </c>
       <c r="J10" t="n">
-        <v>-126.31</v>
+        <v>-28.61</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>111.24</v>
+        <v>179.04</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-250.6</v>
+        <v>-74.86</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-225.97</v>
+        <v>-47.23</v>
       </c>
       <c r="Q10" t="n">
-        <v>393.9</v>
+        <v>544.46</v>
       </c>
       <c r="R10" t="n">
-        <v>-124.99</v>
+        <v>3.46</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-259.59</v>
+        <v>-84.95</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-55.81</v>
+        <v>134.06</v>
       </c>
       <c r="W10" t="n">
-        <v>-42.55</v>
+        <v>158.57</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-96.87</v>
+        <v>52.27</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1917,61 +1917,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-56.87</v>
+        <v>50.17</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-106.92</v>
+        <v>-62.27</v>
       </c>
       <c r="J11" t="n">
-        <v>-282.51</v>
+        <v>-208.77</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>653.47</v>
+        <v>429.13</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-162.93</v>
+        <v>-98.47</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-185.69</v>
+        <v>-124.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>3714.66</v>
+        <v>3726.35</v>
       </c>
       <c r="R11" t="n">
-        <v>-125.54</v>
+        <v>-63.79</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-215.78</v>
+        <v>-151.69</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>19.01</v>
+        <v>180.82</v>
       </c>
       <c r="W11" t="n">
-        <v>270.07</v>
+        <v>340</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>73.98</v>
+        <v>289.05</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1997,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-61.21</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-59.93</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -2012,46 +2012,46 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-10.49</v>
+        <v>80.76</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-231.61</v>
+        <v>-82.01</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>-215.96</v>
+        <v>-60.78</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-116.72</v>
+        <v>2.31</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-236.2</v>
+        <v>-88.13</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-58.19</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-64.2</v>
+        <v>144.34</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-98.91</v>
+        <v>34.7</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -2077,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-57.22</v>
+        <v>-22.93</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-67.84</v>
+        <v>-75.09</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2092,46 +2092,46 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>85.92</v>
+        <v>120.08</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-182.41</v>
+        <v>-87.98</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-188.89</v>
+        <v>-96.4</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-93.67</v>
+        <v>-1.89</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-188.51</v>
+        <v>-94.26</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-43.87</v>
+        <v>162.83</v>
       </c>
       <c r="W13" t="n">
-        <v>-11.82</v>
+        <v>87.38</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-68.4</v>
+        <v>47.49</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2172,31 +2172,31 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-355.55</v>
+        <v>-190.97</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-371.76</v>
+        <v>-68.68</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-390.4</v>
+        <v>-114.56</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-237.18</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-388.85</v>
+        <v>-111.42</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-257.07</v>
+        <v>67.24</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-243.63</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2252,31 +2252,31 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-184.65</v>
+        <v>-40.9</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-318.91</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-305.81</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-156.38</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-312.82</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-316.19</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-156.34</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
